--- a/src/main/webapp/res/test_in.xlsx
+++ b/src/main/webapp/res/test_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\Evaluation\src\main\webapp\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="24">
   <si>
     <t>Diagnostic Listening Test</t>
   </si>
@@ -114,26 +114,6 @@
   </si>
   <si>
     <t>Passage Two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,17 +188,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,18 +517,17 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="89.625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -558,191 +537,167 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
       <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -751,366 +706,318 @@
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
       <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
       <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
       <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
       <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
       <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1119,272 +1026,236 @@
       <c r="E31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
       <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
       <c r="I33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="2"/>
+      <c r="G35" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F37" s="2"/>
+      <c r="G37" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
       <c r="I37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
       <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
       <c r="I42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
       <c r="I43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -1393,286 +1264,221 @@
       <c r="E46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
       <c r="I47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
       <c r="I48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="F51" s="2"/>
+      <c r="G51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="4"/>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="F52" s="2"/>
+      <c r="G52" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
       <c r="I52" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="4"/>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="F53" s="2"/>
+      <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
       <c r="I53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="4"/>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="F56" s="2"/>
+      <c r="G56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="4"/>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="F57" s="2"/>
+      <c r="G57" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
       <c r="I57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="4"/>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="F58" s="2"/>
+      <c r="G58" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
       <c r="I58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="4"/>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="F59" s="2"/>
+      <c r="G59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="4"/>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F31:F45"/>
-    <mergeCell ref="F46:F60"/>
-    <mergeCell ref="A1:A50"/>
-    <mergeCell ref="B46:B60"/>
-    <mergeCell ref="B31:B45"/>
-    <mergeCell ref="C31:C45"/>
-    <mergeCell ref="C46:C60"/>
-    <mergeCell ref="D31:D45"/>
-    <mergeCell ref="D46:D60"/>
-    <mergeCell ref="E31:E45"/>
-    <mergeCell ref="E46:E60"/>
-    <mergeCell ref="B11:B30"/>
-    <mergeCell ref="C11:C30"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="E1:E5"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="F11:F20"/>
-    <mergeCell ref="F21:F30"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="E21:E30"/>
-    <mergeCell ref="F1:F5"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="B1:B10"/>
-    <mergeCell ref="C1:C10"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/webapp/res/test_in.xlsx
+++ b/src/main/webapp/res/test_in.xlsx
@@ -514,23 +514,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="89.625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -545,76 +547,83 @@
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -623,76 +632,83 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -709,152 +725,166 @@
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -867,152 +897,166 @@
       <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>11</v>
       </c>
-      <c r="I27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>16</v>
@@ -1029,228 +1073,249 @@
       <c r="F31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="I33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>11</v>
       </c>
-      <c r="I37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>12</v>
       </c>
-      <c r="I38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>11</v>
       </c>
-      <c r="I42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>12</v>
       </c>
-      <c r="I43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>16</v>
@@ -1267,214 +1332,235 @@
       <c r="F46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="4">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="4"/>
+      <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>11</v>
       </c>
-      <c r="I47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>12</v>
       </c>
-      <c r="I48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="4">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="4"/>
+      <c r="H53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>12</v>
       </c>
-      <c r="I53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4"/>
+      <c r="H55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="4">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="4"/>
+      <c r="H57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>11</v>
       </c>
-      <c r="I57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="4"/>
+      <c r="H58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>12</v>
       </c>
-      <c r="I58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="4"/>
+      <c r="H59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="4"/>
+      <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1</v>
       </c>
     </row>

--- a/src/main/webapp/res/test_in.xlsx
+++ b/src/main/webapp/res/test_in.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="24">
   <si>
     <t>Diagnostic Listening Test</t>
   </si>
@@ -514,1053 +514,1177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="89.625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="1" max="2" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4">
+      <c r="I1" s="4">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>12</v>
       </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="1" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>12</v>
       </c>
-      <c r="J23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="1" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>12</v>
       </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="1" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="4">
+      <c r="I31" s="4">
         <v>7</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="1" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>12</v>
       </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="1" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4">
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="1" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="1" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>12</v>
       </c>
-      <c r="J38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="1" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4">
         <v>9</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="1" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="J42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="1" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>12</v>
       </c>
-      <c r="J43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="1" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="1" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="4">
+      <c r="I46" s="4">
         <v>10</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="1" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="J47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="1" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>12</v>
       </c>
-      <c r="J48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="1" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="1" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="4">
+    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="4">
         <v>11</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="1" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="1" t="s">
+      <c r="L52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>12</v>
       </c>
-      <c r="J53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="1" t="s">
+      <c r="L53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="1" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="4">
         <v>12</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="1" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>11</v>
       </c>
-      <c r="J57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="1" t="s">
+      <c r="L57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>12</v>
       </c>
-      <c r="J58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="1" t="s">
+      <c r="L58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="1" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>1</v>
       </c>
     </row>

--- a/src/main/webapp/res/test_in.xlsx
+++ b/src/main/webapp/res/test_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\Evaluation\src\main\webapp\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanpengzhang\Desktop\Workspace\Evaluation\src\main\webapp\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,11 +528,11 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="10" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,11 +559,14 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -576,14 +579,17 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -596,14 +602,17 @@
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -616,11 +625,14 @@
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -633,11 +645,12 @@
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -656,11 +669,14 @@
       <c r="J6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -673,14 +689,17 @@
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -693,14 +712,17 @@
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -713,11 +735,14 @@
       <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -730,11 +755,12 @@
       <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>2</v>
@@ -763,11 +789,14 @@
       <c r="J11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -780,14 +809,17 @@
       <c r="J12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -800,14 +832,17 @@
       <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
         <v>12</v>
       </c>
-      <c r="L13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -820,11 +855,14 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -837,11 +875,12 @@
       <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -856,11 +895,14 @@
       <c r="J16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -873,14 +915,17 @@
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -893,14 +938,17 @@
       <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
         <v>12</v>
       </c>
-      <c r="L18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -913,11 +961,14 @@
       <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -930,11 +981,12 @@
       <c r="J20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+      <c r="N20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -957,11 +1009,14 @@
       <c r="J21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -974,14 +1029,17 @@
       <c r="J22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -994,14 +1052,17 @@
       <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1014,11 +1075,14 @@
       <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1031,11 +1095,12 @@
       <c r="J25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M25">
+      <c r="K25" s="1"/>
+      <c r="N25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1050,11 +1115,14 @@
       <c r="J26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1067,14 +1135,17 @@
       <c r="J27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1087,14 +1158,17 @@
       <c r="J28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
         <v>12</v>
       </c>
-      <c r="L28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1107,11 +1181,14 @@
       <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1124,11 +1201,12 @@
       <c r="J30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="1"/>
+      <c r="N30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>3</v>
@@ -1157,11 +1235,14 @@
       <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1174,14 +1255,17 @@
       <c r="J32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1194,14 +1278,17 @@
       <c r="J33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1214,11 +1301,14 @@
       <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1231,11 +1321,12 @@
       <c r="J35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M35">
+      <c r="K35" s="1"/>
+      <c r="N35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1250,11 +1341,14 @@
       <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1267,14 +1361,17 @@
       <c r="J37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1287,14 +1384,17 @@
       <c r="J38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
         <v>12</v>
       </c>
-      <c r="L38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1307,11 +1407,14 @@
       <c r="J39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+      <c r="L39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1324,11 +1427,12 @@
       <c r="J40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K40" s="1"/>
+      <c r="N40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1343,11 +1447,14 @@
       <c r="J41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1360,14 +1467,17 @@
       <c r="J42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1380,14 +1490,17 @@
       <c r="J43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
         <v>12</v>
       </c>
-      <c r="L43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1400,11 +1513,14 @@
       <c r="J44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1417,11 +1533,12 @@
       <c r="J45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="1"/>
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1444,11 +1561,14 @@
       <c r="J46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1461,14 +1581,17 @@
       <c r="J47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1481,14 +1604,17 @@
       <c r="J48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
         <v>12</v>
       </c>
-      <c r="L48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1501,11 +1627,14 @@
       <c r="J49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1">
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1518,11 +1647,12 @@
       <c r="J50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="1"/>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1535,11 +1665,14 @@
       <c r="J51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1550,14 +1683,17 @@
       <c r="J52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
         <v>11</v>
       </c>
-      <c r="L52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1568,14 +1704,17 @@
       <c r="J53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="1">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
         <v>12</v>
       </c>
-      <c r="L53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -1586,11 +1725,14 @@
       <c r="J54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="1">
+        <v>4</v>
+      </c>
+      <c r="L54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1601,11 +1743,12 @@
       <c r="J55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K55" s="1"/>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -1618,11 +1761,14 @@
       <c r="J56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1633,14 +1779,17 @@
       <c r="J57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="1">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
         <v>11</v>
       </c>
-      <c r="L57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -1651,14 +1800,17 @@
       <c r="J58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="1">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
         <v>12</v>
       </c>
-      <c r="L58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1669,11 +1821,14 @@
       <c r="J59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="1">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -1684,7 +1839,8 @@
       <c r="J60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M60">
+      <c r="K60" s="1"/>
+      <c r="N60">
         <v>1</v>
       </c>
     </row>

--- a/src/main/webapp/res/test_in.xlsx
+++ b/src/main/webapp/res/test_in.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanpengzhang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="5010"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="154">
   <si>
     <t>Diagnostic Listening Test</t>
   </si>
@@ -28,26 +32,7 @@
     <t>Short Conversation</t>
   </si>
   <si>
-    <t>音频.mp3</t>
-  </si>
-  <si>
-    <t>He is drowning.</t>
-  </si>
-  <si>
-    <t>He is drawing</t>
-  </si>
-  <si>
-    <t>He is driving.</t>
-  </si>
-  <si>
-    <t>He is dreaming</t>
-  </si>
-  <si>
     <t>He is drinking.</t>
-  </si>
-  <si>
-    <t>音频.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intervention1</t>
@@ -110,15 +95,554 @@
     <t>In this section, you will hear several passages. At the end of each passage, you will hear some questions. Both the passage and the questions will be spoken only once. After you hear a question, you must choose the best answer from the five choices marked A, B, C, D and E. Then mark the corresponding letter.</t>
   </si>
   <si>
-    <t>音频.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频.mp3</t>
+    <t>Whether it is made of light straw.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether it has a long string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is drowning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is drawing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is driving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is dreaming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether it is light and strong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether it has long stripes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether it is the right color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bus was late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Her clock was slow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She got up late.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She forgot her class.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s raining hard outside.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She went out jogging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She had no more milk.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She went out for a walk.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She was delivering milk.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She went to get some coffee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John failed the final exam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John is absent from school.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John has passed the final exam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John keeps studying though tired.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John was well-prepared for the final exam.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They left their train tickets back home.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They arrived at the railway station just in time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> They missed the train because of the bad traffic.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They barely caught the bus to the railway station.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They had a traffic accident on the way to the station.</t>
+  </si>
+  <si>
+    <t>She helped the man to survive the earthquake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She could survive the earthquake without help. </t>
+  </si>
+  <si>
+    <t>She couldn’t live by herself after the earthquake.</t>
+  </si>
+  <si>
+    <t>She survived the earthquake and saved the man too.</t>
+  </si>
+  <si>
+    <t>She would have died if the man hadn’t arrived in time.</t>
+  </si>
+  <si>
+    <t>The man hasn’t met the new teacher yet.</t>
+  </si>
+  <si>
+    <t>The woman didn’t know the new teacher.</t>
+  </si>
+  <si>
+    <t>The new teacher has been sick for two days.</t>
+  </si>
+  <si>
+    <t>The new teacher didn’t come to school yesterday.</t>
+  </si>
+  <si>
+    <t>The man didn’t understand the woman’s question.</t>
+  </si>
+  <si>
+    <t>Easter.</t>
+  </si>
+  <si>
+    <t>Valentine’s Day.</t>
+  </si>
+  <si>
+    <t>Christmas.</t>
+  </si>
+  <si>
+    <t>Independence Day.</t>
+  </si>
+  <si>
+    <t>Halloween.</t>
+  </si>
+  <si>
+    <r>
+      <t>He'll go to the party with the woman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>．</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He has changed his plans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>．</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> He won’t meet the man at the party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>．</t>
+    </r>
+  </si>
+  <si>
+    <t>He has to work late.</t>
+  </si>
+  <si>
+    <t>He always has time for parties.</t>
+  </si>
+  <si>
+    <t>They look forward to the class trip.</t>
+  </si>
+  <si>
+    <t>The weather is perfect for a picnic.</t>
+  </si>
+  <si>
+    <t>The school sports event is on Friday</t>
+  </si>
+  <si>
+    <t>The professor will cancel his class.</t>
+  </si>
+  <si>
+    <t>They are eager to visit the professor.</t>
+  </si>
+  <si>
+    <t>She enjoys it.</t>
+  </si>
+  <si>
+    <t>She thinks it’s too tiring.</t>
+  </si>
+  <si>
+    <t>She prefers outdoor activities.</t>
+  </si>
+  <si>
+    <t>She thinks it’s a waste of time.</t>
+  </si>
+  <si>
+    <t>She’s worried it will be too difficult.</t>
+  </si>
+  <si>
+    <t>It enables him to apply theory to practice.</t>
+  </si>
+  <si>
+    <t>It requires him to work long hours.</t>
+  </si>
+  <si>
+    <t>It allows him to make a lot of friends.</t>
+  </si>
+  <si>
+    <t>It helps him understand people better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It offers him a satisfactory salary</t>
+  </si>
+  <si>
+    <t>He has to learn new skills.</t>
+  </si>
+  <si>
+    <t>He has to wear suits every day</t>
+  </si>
+  <si>
+    <t>He has to do the washing-up himself.</t>
+  </si>
+  <si>
+    <t>He has to deal with smoke all day long</t>
+  </si>
+  <si>
+    <t>He has to be patient and stand up all the time</t>
+  </si>
+  <si>
+    <t>Getting along well with colleagues.</t>
+  </si>
+  <si>
+    <t>Being responsible for your work.</t>
+  </si>
+  <si>
+    <t>Planning everything in advance.</t>
+  </si>
+  <si>
+    <t>Knowing the needs of customers.</t>
+  </si>
+  <si>
+    <t>Paying attention to every detail.</t>
+  </si>
+  <si>
+    <t>The major ways of volunteering.</t>
+  </si>
+  <si>
+    <t>The influence of volunteer activities.</t>
+  </si>
+  <si>
+    <t>The most popular volunteer programs</t>
+  </si>
+  <si>
+    <t>The three main areas people volunteer in</t>
+  </si>
+  <si>
+    <t>The three key reasons why people should volunteer.</t>
+  </si>
+  <si>
+    <t>It is needed when wars break out.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>can only provide health and safety.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is busy in handling urgent problems.</t>
+  </si>
+  <si>
+    <t>It’s public service system is imperfect.</t>
+  </si>
+  <si>
+    <t>It is a little slow in dealing with local problems.</t>
+  </si>
+  <si>
+    <t>Helping others brings positive emotions.</t>
+  </si>
+  <si>
+    <t>Volunteering benefits the receivers more.</t>
+  </si>
+  <si>
+    <t>Helping others means power.</t>
+  </si>
+  <si>
+    <t>Everyone needs help and friends.</t>
+  </si>
+  <si>
+    <t>People help others to obtain social recognition</t>
+  </si>
+  <si>
+    <t>To test a new device invented in America.</t>
+  </si>
+  <si>
+    <t>To drive the car automatically</t>
+  </si>
+  <si>
+    <t>To monitor the driver’s health.</t>
+  </si>
+  <si>
+    <t>To measure the driver’s pulse.</t>
+  </si>
+  <si>
+    <t>To prevent car accidents.</t>
+  </si>
+  <si>
+    <t>It sends out signals for help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It takes over the driving immediately.</t>
+  </si>
+  <si>
+    <t>It stops the car automatically.</t>
+  </si>
+  <si>
+    <t>It sounds an alarm to warn the driver.</t>
+  </si>
+  <si>
+    <t>It analyzes the driver’s blood pressure.</t>
+  </si>
+  <si>
+    <t>It improves the drivers’ health condition.</t>
+  </si>
+  <si>
+    <t>It bases its analysis on the driver’s heartbeat.</t>
+  </si>
+  <si>
+    <t>It can measure the driver’s blood-alcohol level.</t>
+  </si>
+  <si>
+    <t>It can quicken the driver’s response to emergencies.</t>
+  </si>
+  <si>
+    <t>It monitors the signals transmitted from the driver’s brain.</t>
+  </si>
+  <si>
+    <t>1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你注意到女士那句话的语音特点了吗？以dr开头的单词发音是什么？
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你听到“/au/”的发音了吗? 
+这个音怎么读？
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">这是一个合口双元音，其第二部分为/i/或/u/。双元音由两个元音组成，发音时由一个元音向另一个元音滑动，口型由大变小。前一个元音发音清晰响亮，时间长；后一个元音发音模糊软弱，时间短。
+*比如 “cow”/kau/ 奶牛；
+        out /aut/ 外面
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“He is drowning” 的意思是他溺水了。Drowning读做/drauniŋ/
+正确答案是A.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你注意到这句话的韵律特征了吗，哪个短语发生了明显的连音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你知道在什么情况下，哪些音可以连读？
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“辅音+元音”型：如果相邻两词中的前一个词以辅音结尾，后一个词以元音开头，就要将辅音与元音拼起来快速连读，如“half an hour”中Half的末尾是/f/，后接元音/æ/，所以读做/fæn/.
+“辅音+辅音”型的“爆破音+摩擦音”：如果前面是爆破音(/t/,/d/)，其后紧跟某些摩擦音(/f/, /s/)，那前面的爆破音仅有十分轻微的爆破，而后面的摩擦音则要完全爆破，如Good morning的/d/与/m/.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“Is that nice looking straw hat light and strong?”
+这句话light and strong连音，问草帽子是否轻便结实。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1题.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第1题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.mp3</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +650,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +698,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,6 +760,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,16 +1088,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106:L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
+    <col min="1" max="1" width="31.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
     <col min="4" max="5" width="22.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
@@ -561,30 +1120,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="2">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L1" s="5">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
+      <c r="M1" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -598,19 +1155,19 @@
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
       <c r="K2" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -621,19 +1178,19 @@
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="L3" s="5">
         <v>3</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -644,13 +1201,13 @@
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
       <c r="K4" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L4" s="5">
         <v>4</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
+      <c r="M4" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -664,7 +1221,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
       <c r="K5" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L5" s="5"/>
       <c r="O5" s="6">
@@ -681,26 +1238,24 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M6" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -711,19 +1266,19 @@
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="K7" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -734,19 +1289,19 @@
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="K8" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5">
         <v>3</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -757,13 +1312,13 @@
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="K9" s="5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L9" s="5">
         <v>4</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>12</v>
+      <c r="M9" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -777,7 +1332,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
       <c r="K10" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5"/>
       <c r="O10" s="6">
@@ -786,121 +1341,80 @@
     </row>
     <row r="11" spans="1:15" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="2">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="K12" s="5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>2</v>
+      <c r="M12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="K13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="5">
-        <v>3</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>2</v>
+      <c r="N13" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="K14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L14" s="5">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="K15" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L15" s="5"/>
       <c r="O15" s="6">
@@ -909,107 +1423,80 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="2">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="K17" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="L17" s="5">
         <v>2</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
       <c r="K18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="5">
-        <v>3</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>2</v>
+      <c r="N18" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
       <c r="K19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="5">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L19" s="5">
-        <v>4</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
       <c r="K20" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="L20" s="5"/>
       <c r="O20" s="6">
@@ -1018,35 +1505,24 @@
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="2">
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L21" s="5">
         <v>1</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1060,16 +1536,16 @@
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
       <c r="K22" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="L22" s="5">
         <v>2</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1083,16 +1559,16 @@
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="K23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="5">
-        <v>3</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>2</v>
+      <c r="N23" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1106,13 +1582,13 @@
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
       <c r="K24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="5">
+        <v>4</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L24" s="5">
-        <v>4</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1126,7 +1602,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
       <c r="K25" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L25" s="5"/>
       <c r="O25" s="6">
@@ -1138,7 +1614,9 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
@@ -1146,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>3</v>
+        <v>127</v>
+      </c>
+      <c r="K26" s="7">
+        <v>24</v>
       </c>
       <c r="L26" s="5">
         <v>1</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1168,17 +1646,17 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
-      <c r="K27" s="5" t="s">
-        <v>4</v>
+      <c r="K27" s="7">
+        <v>30</v>
       </c>
       <c r="L27" s="5">
         <v>2</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1191,17 +1669,17 @@
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="7">
+        <v>64</v>
+      </c>
+      <c r="L28" s="5">
+        <v>3</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="5">
-        <v>3</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>2</v>
+      <c r="N28" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -1214,14 +1692,14 @@
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="7">
+        <v>50</v>
+      </c>
+      <c r="L29" s="5">
+        <v>4</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L29" s="5">
-        <v>4</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -1234,8 +1712,8 @@
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
-      <c r="K30" s="5" t="s">
-        <v>7</v>
+      <c r="K30" s="7">
+        <v>56</v>
       </c>
       <c r="L30" s="5"/>
       <c r="O30" s="6">
@@ -1244,121 +1722,80 @@
     </row>
     <row r="31" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E31" s="6">
+        <v>7</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="2">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
       <c r="K32" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="L32" s="5">
         <v>2</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
       <c r="K33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="5">
+        <v>3</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L33" s="5">
-        <v>3</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>2</v>
+      <c r="N33" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="5">
+        <v>4</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L34" s="5">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
-      <c r="K35" s="5" t="s">
-        <v>7</v>
+      <c r="K35" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="L35" s="5"/>
       <c r="O35" s="6">
@@ -1367,107 +1804,80 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="6">
+        <v>8</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="2">
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="L36" s="5">
         <v>1</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
-      <c r="K37" s="5" t="s">
-        <v>4</v>
+      <c r="K37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="L37" s="5">
         <v>2</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="5">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="5">
-        <v>3</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>2</v>
+      <c r="N38" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
       <c r="H39" s="4"/>
       <c r="I39" s="2"/>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="5">
+        <v>4</v>
+      </c>
+      <c r="M39" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L39" s="5">
-        <v>4</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
-      <c r="K40" s="5" t="s">
-        <v>7</v>
+      <c r="K40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="L40" s="5"/>
       <c r="O40" s="6">
@@ -1476,107 +1886,80 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="E41" s="6">
+        <v>9</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="2">
         <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>3</v>
+        <v>130</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="L41" s="5">
         <v>1</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" s="2"/>
-      <c r="K42" s="5" t="s">
-        <v>4</v>
+      <c r="K42" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="L42" s="5">
         <v>2</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
       <c r="H43" s="4"/>
       <c r="I43" s="2"/>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="5">
+        <v>3</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="5">
-        <v>3</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>2</v>
+      <c r="N43" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
       <c r="H44" s="4"/>
       <c r="I44" s="2"/>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="5">
+        <v>4</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L44" s="5">
-        <v>4</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
       <c r="H45" s="4"/>
       <c r="I45" s="2"/>
-      <c r="K45" s="5" t="s">
-        <v>7</v>
+      <c r="K45" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="L45" s="5"/>
       <c r="O45" s="6">
@@ -1585,35 +1968,24 @@
     </row>
     <row r="46" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E46" s="6">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="2">
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="L46" s="5">
         <v>1</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -1626,17 +1998,17 @@
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
       <c r="I47" s="2"/>
-      <c r="K47" s="5" t="s">
-        <v>4</v>
+      <c r="K47" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="L47" s="5">
         <v>2</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -1649,17 +2021,17 @@
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="2"/>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="5">
+        <v>3</v>
+      </c>
+      <c r="M48" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="5">
-        <v>3</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>2</v>
+      <c r="N48" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -1672,14 +2044,14 @@
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
       <c r="I49" s="2"/>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="5">
+        <v>4</v>
+      </c>
+      <c r="M49" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L49" s="5">
-        <v>4</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -1692,8 +2064,8 @@
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
       <c r="I50" s="2"/>
-      <c r="K50" s="5" t="s">
-        <v>7</v>
+      <c r="K50" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="L50" s="5"/>
       <c r="O50" s="6">
@@ -1703,7 +2075,9 @@
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>11</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
@@ -1711,16 +2085,16 @@
         <v>11</v>
       </c>
       <c r="J51" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="L51" s="5">
         <v>1</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -1731,17 +2105,17 @@
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
       <c r="I52" s="2"/>
-      <c r="K52" s="5" t="s">
-        <v>4</v>
+      <c r="K52" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="L52" s="5">
         <v>2</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -1752,17 +2126,17 @@
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
       <c r="I53" s="2"/>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="5">
-        <v>3</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>2</v>
+      <c r="N53" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -1773,14 +2147,14 @@
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
       <c r="I54" s="2"/>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="5">
+        <v>4</v>
+      </c>
+      <c r="M54" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="L54" s="5">
-        <v>4</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -1791,38 +2165,52 @@
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
       <c r="I55" s="2"/>
-      <c r="K55" s="5" t="s">
-        <v>7</v>
+      <c r="K55" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="L55" s="5"/>
       <c r="O55" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+    <row r="56" spans="1:15" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="2">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="2">
         <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="L56" s="5">
         <v>1</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1830,20 +2218,21 @@
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
       <c r="I57" s="2"/>
-      <c r="K57" s="5" t="s">
-        <v>4</v>
+      <c r="K57" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="L57" s="5">
         <v>2</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1851,20 +2240,21 @@
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
       <c r="I58" s="2"/>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="5">
+        <v>3</v>
+      </c>
+      <c r="M58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="5">
-        <v>3</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>2</v>
+      <c r="N58" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1872,17 +2262,18 @@
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
       <c r="I59" s="2"/>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="5">
+        <v>4</v>
+      </c>
+      <c r="M59" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L59" s="5">
-        <v>4</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1890,11 +2281,807 @@
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
       <c r="I60" s="2"/>
-      <c r="K60" s="5" t="s">
-        <v>7</v>
+      <c r="K60" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="L60" s="5"/>
       <c r="O60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="I61" s="6">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="K62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" s="5">
+        <v>2</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="K63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="5">
+        <v>3</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="K64" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="5">
+        <v>4</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="K65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="6">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" s="5">
+        <v>2</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K68" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="5">
+        <v>3</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" s="5">
+        <v>4</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I71" s="6">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>136</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L72" s="5">
+        <v>2</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L73" s="5">
+        <v>3</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L74" s="5">
+        <v>4</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I76" s="6">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>137</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L76" s="5">
+        <v>1</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K77" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L77" s="5">
+        <v>2</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L78" s="5">
+        <v>3</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L79" s="5">
+        <v>4</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K80" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="2">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="6">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>138</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" s="5">
+        <v>1</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="K82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L82" s="5">
+        <v>2</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="K83" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L83" s="5">
+        <v>3</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="K84" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L84" s="5">
+        <v>4</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="K85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="I86" s="6">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>139</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="K87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L87" s="5">
+        <v>2</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="K88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L88" s="5">
+        <v>3</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N88" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="K89" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L89" s="5">
+        <v>4</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="K90" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="I91" s="6">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
+        <v>140</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L91" s="5">
+        <v>1</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="K92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L92" s="5">
+        <v>2</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="K93" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L93" s="5">
+        <v>3</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="K94" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L94" s="5">
+        <v>4</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="K95" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>15</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="6">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L96" s="5">
+        <v>1</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K97" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L97" s="5">
+        <v>2</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K98" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L98" s="5">
+        <v>3</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N98" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L99" s="5">
+        <v>4</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I101" s="6">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L101" s="5">
+        <v>1</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K102" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L102" s="5">
+        <v>2</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K103" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L103" s="5">
+        <v>3</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N103" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L104" s="5">
+        <v>4</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K105" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I106" s="6">
+        <v>22</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L106" s="5">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K107" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L107" s="5">
+        <v>2</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K108" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L108" s="5">
+        <v>3</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K109" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L109" s="5">
+        <v>4</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="K110" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O110" s="6">
         <v>1</v>
       </c>
     </row>
